--- a/results/mp/logistic/corona/confidence/126/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>crude</t>
   </si>
   <si>
     <t>forced</t>
@@ -55,15 +58,12 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -76,10 +76,13 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
@@ -91,91 +94,106 @@
     <t>stop</t>
   </si>
   <si>
-    <t>19</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>true</t>
@@ -184,67 +202,58 @@
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>ready</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>and</t>
@@ -616,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7368421052631579</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7294520547945206</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.8947368421052632</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5384615384615384</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5277777777777778</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,16 +957,16 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,16 +1007,16 @@
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4705882352941176</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1045,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4126984126984127</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1148,16 +1157,16 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8302872062663186</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3294573643410852</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>0.8018867924528302</v>
@@ -1277,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2542372881355932</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7948717948717948</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2533333333333334</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7931034482758621</v>
+        <v>0.7890625</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1879194630872483</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1333333333333333</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05555555555555555</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7682926829268293</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,37 +1536,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006542056074766356</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2126</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7464788732394366</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L20">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,37 +1586,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003691470759665825</v>
+        <v>0.005471380471380472</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
       <c r="F21">
-        <v>0.51</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5128</v>
+        <v>2363</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,89 +1636,137 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003477051460361614</v>
+        <v>0.004189494038027715</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>0.24</v>
+      </c>
+      <c r="F22">
+        <v>0.76</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3090</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>0.7375</v>
+      </c>
+      <c r="L22">
+        <v>118</v>
+      </c>
+      <c r="M22">
+        <v>118</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.003939745075318656</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0.43</v>
+      </c>
+      <c r="F23">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4298</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22">
-        <v>0.48</v>
-      </c>
-      <c r="F22">
-        <v>0.52</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>4299</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L22">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>24</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.725</v>
-      </c>
-      <c r="L23">
-        <v>116</v>
-      </c>
-      <c r="M23">
-        <v>116</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="B24">
+        <v>0.003297769156159069</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>0.37</v>
+      </c>
+      <c r="F24">
+        <v>0.63</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5138</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1726,7 +1783,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>0.6857142857142857</v>
@@ -1752,16 +1809,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.6842105263157895</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1773,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.6825396825396826</v>
+        <v>0.675</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.6511627906976745</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +1908,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.64</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,21 +1934,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.6296296296296297</v>
+        <v>0.64</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,21 +1960,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.6264705882352941</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L32">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,21 +1986,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.5774058577405857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L34">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.575</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2007,21 +2064,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2033,21 +2090,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.5652173913043478</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2059,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.5638297872340425</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2085,21 +2142,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.5571428571428572</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2111,21 +2168,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.5416666666666666</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2137,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.5389830508474577</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L41">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2163,21 +2220,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.5230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2189,21 +2246,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.4848484848484849</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2215,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.4814814814814815</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2241,21 +2298,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.4719101123595505</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2267,21 +2324,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.3725490196078431</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2293,47 +2350,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.3658536585365854</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L47">
         <v>15</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.2948717948717949</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2345,21 +2402,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.2602739726027397</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2371,30 +2428,30 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.01918265221017515</v>
+        <v>0.02</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M50">
         <v>24</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>1176</v>
@@ -2402,106 +2459,106 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.007124109486314211</v>
+        <v>0.01006289308176101</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="O51">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>2648</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.003611556982343499</v>
+        <v>0.005999250093738283</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="O52">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4966</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.003497862417411582</v>
+        <v>0.00340954673084637</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N53">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="O53">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5128</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K54">
-        <v>0.003246000463714352</v>
+        <v>0.003015541637671074</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N54">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="O54">
-        <v>0.52</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4299</v>
+        <v>4298</v>
       </c>
     </row>
   </sheetData>
